--- a/SchedulingData/dynamic9/pso/scheduling1_10.xlsx
+++ b/SchedulingData/dynamic9/pso/scheduling1_10.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>62.02</v>
+        <v>53.6</v>
       </c>
       <c r="E2" t="n">
-        <v>25.968</v>
+        <v>25.84</v>
       </c>
     </row>
     <row r="3">
@@ -485,166 +485,166 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>80.98</v>
+        <v>73.92</v>
       </c>
       <c r="E3" t="n">
-        <v>27.052</v>
+        <v>25.268</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>51.62</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>27.008</v>
+        <v>26.62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>45.28</v>
+        <v>51.64</v>
       </c>
       <c r="E5" t="n">
-        <v>26.172</v>
+        <v>26.516</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>80.98</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>136.92</v>
+        <v>145.7</v>
       </c>
       <c r="E6" t="n">
-        <v>23.568</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>55.24</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>26.656</v>
+        <v>26.34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>55.24</v>
+        <v>73.92</v>
       </c>
       <c r="D8" t="n">
-        <v>112.94</v>
+        <v>131.02</v>
       </c>
       <c r="E8" t="n">
-        <v>23.016</v>
+        <v>21.668</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>51.62</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>117.52</v>
+        <v>62.02</v>
       </c>
       <c r="E9" t="n">
-        <v>21.548</v>
+        <v>25.968</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>117.52</v>
+        <v>131.02</v>
       </c>
       <c r="D10" t="n">
-        <v>163.5</v>
+        <v>183.08</v>
       </c>
       <c r="E10" t="n">
-        <v>18.58</v>
+        <v>19.072</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>45.28</v>
+        <v>53.6</v>
       </c>
       <c r="D11" t="n">
-        <v>103.28</v>
+        <v>108.28</v>
       </c>
       <c r="E11" t="n">
         <v>22.012</v>
@@ -652,192 +652,192 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>163.5</v>
+        <v>62.02</v>
       </c>
       <c r="D12" t="n">
-        <v>221.2</v>
+        <v>143.5</v>
       </c>
       <c r="E12" t="n">
-        <v>14.92</v>
+        <v>21.92</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>62.02</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>129.52</v>
+        <v>129</v>
       </c>
       <c r="E13" t="n">
-        <v>21.828</v>
+        <v>21.92</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>103.28</v>
+        <v>51.64</v>
       </c>
       <c r="D14" t="n">
-        <v>168.68</v>
+        <v>122.44</v>
       </c>
       <c r="E14" t="n">
-        <v>17.592</v>
+        <v>21.056</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>168.68</v>
+        <v>122.44</v>
       </c>
       <c r="D15" t="n">
-        <v>221.96</v>
+        <v>176.18</v>
       </c>
       <c r="E15" t="n">
-        <v>14.864</v>
+        <v>17.312</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>143.5</v>
       </c>
       <c r="D16" t="n">
-        <v>73.92</v>
+        <v>187.08</v>
       </c>
       <c r="E16" t="n">
-        <v>25.268</v>
+        <v>19.192</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>221.2</v>
+        <v>129</v>
       </c>
       <c r="D17" t="n">
-        <v>278.3</v>
+        <v>168.84</v>
       </c>
       <c r="E17" t="n">
-        <v>10.84</v>
+        <v>18.576</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>278.3</v>
+        <v>187.08</v>
       </c>
       <c r="D18" t="n">
-        <v>337.48</v>
+        <v>279.28</v>
       </c>
       <c r="E18" t="n">
-        <v>8.552</v>
+        <v>15.052</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>112.94</v>
+        <v>108.28</v>
       </c>
       <c r="D19" t="n">
-        <v>189.74</v>
+        <v>160.38</v>
       </c>
       <c r="E19" t="n">
-        <v>19.416</v>
+        <v>17.932</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>129.52</v>
+        <v>145.7</v>
       </c>
       <c r="D20" t="n">
-        <v>201.26</v>
+        <v>199.12</v>
       </c>
       <c r="E20" t="n">
-        <v>18.244</v>
+        <v>18.488</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>337.48</v>
+        <v>183.08</v>
       </c>
       <c r="D21" t="n">
-        <v>389.44</v>
+        <v>240.58</v>
       </c>
       <c r="E21" t="n">
-        <v>5.956</v>
+        <v>15.432</v>
       </c>
     </row>
     <row r="22">
@@ -846,55 +846,55 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>189.74</v>
+        <v>176.18</v>
       </c>
       <c r="D22" t="n">
-        <v>257.14</v>
+        <v>222.3</v>
       </c>
       <c r="E22" t="n">
-        <v>15.276</v>
+        <v>14.32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>257.14</v>
+        <v>160.38</v>
       </c>
       <c r="D23" t="n">
-        <v>310.78</v>
+        <v>234.76</v>
       </c>
       <c r="E23" t="n">
-        <v>11.532</v>
+        <v>14.124</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>73.92</v>
+        <v>234.76</v>
       </c>
       <c r="D24" t="n">
-        <v>138.82</v>
+        <v>287.46</v>
       </c>
       <c r="E24" t="n">
-        <v>21.888</v>
+        <v>9.984</v>
       </c>
     </row>
     <row r="25">
@@ -903,74 +903,74 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>138.82</v>
+        <v>168.84</v>
       </c>
       <c r="D25" t="n">
-        <v>204.42</v>
+        <v>222.96</v>
       </c>
       <c r="E25" t="n">
-        <v>16.968</v>
+        <v>14.784</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>221.96</v>
+        <v>222.3</v>
       </c>
       <c r="D26" t="n">
-        <v>278.74</v>
+        <v>278.18</v>
       </c>
       <c r="E26" t="n">
-        <v>10.816</v>
+        <v>11.352</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>136.92</v>
+        <v>199.12</v>
       </c>
       <c r="D27" t="n">
-        <v>195.04</v>
+        <v>256.26</v>
       </c>
       <c r="E27" t="n">
-        <v>20.356</v>
+        <v>14.904</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>195.04</v>
+        <v>256.26</v>
       </c>
       <c r="D28" t="n">
-        <v>246.74</v>
+        <v>335.04</v>
       </c>
       <c r="E28" t="n">
-        <v>17.316</v>
+        <v>12.616</v>
       </c>
     </row>
     <row r="29">
@@ -979,22 +979,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>246.74</v>
+        <v>240.58</v>
       </c>
       <c r="D29" t="n">
-        <v>340.72</v>
+        <v>336.78</v>
       </c>
       <c r="E29" t="n">
-        <v>13.508</v>
+        <v>12.392</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1002,13 +1002,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>340.72</v>
+        <v>222.96</v>
       </c>
       <c r="D30" t="n">
-        <v>397.84</v>
+        <v>265.28</v>
       </c>
       <c r="E30" t="n">
-        <v>10.916</v>
+        <v>12.192</v>
       </c>
     </row>
     <row r="31">
@@ -1017,17 +1017,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>204.42</v>
+        <v>265.28</v>
       </c>
       <c r="D31" t="n">
-        <v>263.44</v>
+        <v>306.06</v>
       </c>
       <c r="E31" t="n">
-        <v>13.176</v>
+        <v>9.244</v>
       </c>
     </row>
   </sheetData>
